--- a/code/exmp_notebooks/composition.xlsx
+++ b/code/exmp_notebooks/composition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{918504ED-3089-4C26-89D0-4CBD494FA175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B994F7F2-0C22-4E26-8A46-618F89F2FB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8FA5CFD7-2D27-4A10-A255-1796A79F21D0}"/>
   </bookViews>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -729,6 +729,7 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{12317F7D-B49C-4846-A146-FC76F9DE7044}"/>
@@ -1088,7 +1089,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,6 +1238,7 @@
         <v>0.73705100000000001</v>
       </c>
       <c r="H6" s="4"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
